--- a/results/mp/deberta/corona/confidence/210/stop-words-topk-desired-masking-0.2/avg_0.003_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/210/stop-words-topk-desired-masking-0.2/avg_0.003_scores.xlsx
@@ -106,22 +106,22 @@
     <t>hand</t>
   </si>
   <si>
+    <t>well</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>well</t>
+    <t>share</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>positive</t>
   </si>
   <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>positive</t>
   </si>
   <si>
     <t>care</t>
@@ -670,7 +670,7 @@
         <v>20</v>
       </c>
       <c r="J1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -1202,13 +1202,13 @@
         <v>30</v>
       </c>
       <c r="K12">
-        <v>0.7577092511013216</v>
+        <v>0.7528089887640449</v>
       </c>
       <c r="L12">
-        <v>172</v>
+        <v>67</v>
       </c>
       <c r="M12">
-        <v>184</v>
+        <v>72</v>
       </c>
       <c r="N12">
         <v>0.93</v>
@@ -1220,7 +1220,7 @@
         <v>1</v>
       </c>
       <c r="Q12">
-        <v>55</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1252,25 +1252,25 @@
         <v>31</v>
       </c>
       <c r="K13">
-        <v>0.7528089887640449</v>
+        <v>0.7196652719665272</v>
       </c>
       <c r="L13">
+        <v>172</v>
+      </c>
+      <c r="M13">
+        <v>172</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q13">
         <v>67</v>
-      </c>
-      <c r="M13">
-        <v>72</v>
-      </c>
-      <c r="N13">
-        <v>0.93</v>
-      </c>
-      <c r="O13">
-        <v>0.06999999999999995</v>
-      </c>
-      <c r="P13" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q13">
-        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1302,25 +1302,25 @@
         <v>32</v>
       </c>
       <c r="K14">
-        <v>0.6851851851851852</v>
+        <v>0.6716417910447762</v>
       </c>
       <c r="L14">
-        <v>222</v>
+        <v>45</v>
       </c>
       <c r="M14">
-        <v>238</v>
+        <v>48</v>
       </c>
       <c r="N14">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O14">
-        <v>0.06999999999999995</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P14" t="b">
         <v>1</v>
       </c>
       <c r="Q14">
-        <v>102</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1328,13 +1328,13 @@
         <v>33</v>
       </c>
       <c r="K15">
-        <v>0.6716417910447762</v>
+        <v>0.6713780918727915</v>
       </c>
       <c r="L15">
-        <v>45</v>
+        <v>190</v>
       </c>
       <c r="M15">
-        <v>48</v>
+        <v>202</v>
       </c>
       <c r="N15">
         <v>0.9399999999999999</v>
@@ -1346,7 +1346,7 @@
         <v>1</v>
       </c>
       <c r="Q15">
-        <v>22</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1354,25 +1354,25 @@
         <v>34</v>
       </c>
       <c r="K16">
-        <v>0.6713780918727915</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L16">
-        <v>190</v>
+        <v>38</v>
       </c>
       <c r="M16">
-        <v>202</v>
+        <v>39</v>
       </c>
       <c r="N16">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="O16">
-        <v>0.06000000000000005</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P16" t="b">
         <v>1</v>
       </c>
       <c r="Q16">
-        <v>93</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1380,25 +1380,25 @@
         <v>35</v>
       </c>
       <c r="K17">
-        <v>0.6666666666666666</v>
+        <v>0.6529411764705882</v>
       </c>
       <c r="L17">
-        <v>38</v>
+        <v>222</v>
       </c>
       <c r="M17">
-        <v>39</v>
+        <v>222</v>
       </c>
       <c r="N17">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O17">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>19</v>
+        <v>118</v>
       </c>
     </row>
     <row r="18" spans="10:17">
